--- a/schedules/schedule_classrooms_overview.xlsx
+++ b/schedules/schedule_classrooms_overview.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,6 +746,32 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -844,8 +870,60 @@
       <c r="Z4" t="n">
         <v>2</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -869,6 +947,34 @@
       </c>
       <c r="Z5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1262,32 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -1304,6 +1436,58 @@
       <c r="H5" t="n">
         <v>8</v>
       </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -1381,6 +1565,34 @@
       </c>
       <c r="H8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,6 +1852,112 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1654,7 +1972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,6 +2437,32 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>31</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -2735,6 +3079,32 @@
       <c r="Z13" t="n">
         <v>1</v>
       </c>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -2884,6 +3254,60 @@
       </c>
       <c r="Z16" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +3327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,6 +3596,32 @@
       <c r="H3" t="n">
         <v>10</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>38</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -3296,6 +3746,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -3346,6 +3822,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>38</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -3603,6 +4105,34 @@
       </c>
       <c r="AI15" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +4151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,6 +4420,32 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -3988,6 +4544,32 @@
       <c r="Z4" t="n">
         <v>3</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -4087,6 +4669,60 @@
       </c>
       <c r="Z6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +5206,32 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>36</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -4866,6 +5528,32 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -4942,6 +5630,32 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36</v>
+      </c>
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="inlineStr">
         <is>
@@ -5173,6 +5887,34 @@
       </c>
       <c r="AI19" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AB20" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5559,6 +6301,32 @@
       <c r="H4" t="n">
         <v>5</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -5905,6 +6673,58 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>31</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -5954,6 +6774,34 @@
       </c>
       <c r="AI10" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5973,7 +6821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6658,6 +7506,32 @@
       <c r="Q7" t="n">
         <v>3</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>27</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -6732,6 +7606,32 @@
       <c r="Q8" t="n">
         <v>10</v>
       </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -6758,6 +7658,32 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -6809,6 +7735,34 @@
       </c>
       <c r="H11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +7782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,6 +8565,32 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -7808,6 +8788,86 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +8887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8390,6 +9450,58 @@
       <c r="H6" t="n">
         <v>5</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -8566,6 +9678,32 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41</v>
+      </c>
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="inlineStr">
         <is>
@@ -8719,6 +9857,34 @@
       </c>
       <c r="AI15" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -8738,7 +9904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8983,6 +10149,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -9303,6 +10495,32 @@
       <c r="Q7" t="n">
         <v>6</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -9379,6 +10597,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>40</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -9584,6 +10828,34 @@
       </c>
       <c r="AI16" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9602,7 +10874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10189,6 +11461,32 @@
       <c r="Q6" t="n">
         <v>2</v>
       </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>36</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -10215,6 +11513,32 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
       <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="inlineStr">
         <is>
@@ -10515,6 +11839,32 @@
       </c>
     </row>
     <row r="13">
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>36</v>
+      </c>
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="inlineStr">
         <is>
@@ -10590,6 +11940,34 @@
       </c>
       <c r="AI15" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10609,7 +11987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10976,6 +12354,32 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -11494,6 +12898,32 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>31</v>
+      </c>
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="inlineStr">
         <is>
@@ -11620,6 +13050,32 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>31</v>
+      </c>
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="inlineStr">
         <is>
@@ -11695,6 +13151,34 @@
       </c>
       <c r="AI16" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -11714,7 +13198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11983,6 +13467,32 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>32</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -12255,6 +13765,58 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -12408,6 +13970,34 @@
       </c>
       <c r="AI12" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -12426,7 +14016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12817,6 +14407,32 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>32</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -13089,6 +14705,32 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>32</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -13115,6 +14757,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -13398,6 +15066,34 @@
       </c>
       <c r="AI19" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AB20" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -13417,7 +15113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13858,6 +15554,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -13956,6 +15678,32 @@
       <c r="Q6" t="n">
         <v>2</v>
       </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>30</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -14082,6 +15830,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -14105,6 +15879,34 @@
       </c>
       <c r="AI9" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -14124,7 +15926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14565,6 +16367,58 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>33</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -14665,6 +16519,32 @@
       </c>
     </row>
     <row r="7">
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>33</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -14948,6 +16828,34 @@
       </c>
       <c r="AI17" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="AB18" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -14967,7 +16875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15358,6 +17266,32 @@
       <c r="Q4" t="n">
         <v>4</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>31</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -15458,6 +17392,58 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>31</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -15793,6 +17779,34 @@
       </c>
       <c r="AI18" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AB19" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -15812,7 +17826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16497,6 +18511,32 @@
       <c r="Q7" t="n">
         <v>4</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>28</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -16523,6 +18563,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>28</v>
+      </c>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -16673,6 +18739,32 @@
       </c>
     </row>
     <row r="11">
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>28</v>
+      </c>
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="inlineStr">
         <is>
@@ -16722,6 +18814,34 @@
       </c>
       <c r="AI12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -16741,7 +18861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17108,6 +19228,32 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -17256,6 +19402,32 @@
       <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>27</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -17579,6 +19751,60 @@
       </c>
       <c r="AI12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17598,7 +19824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18137,6 +20363,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29</v>
+      </c>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -18235,6 +20487,32 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -18261,6 +20539,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>29</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -18284,6 +20588,34 @@
       </c>
       <c r="AI8" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -18303,7 +20635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18548,6 +20880,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -18794,6 +21152,32 @@
       <c r="Q6" t="n">
         <v>7</v>
       </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>38</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -18870,6 +21254,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -18997,6 +21407,34 @@
       </c>
       <c r="AI12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -19015,7 +21453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19774,6 +22212,32 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>22</v>
+      </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="inlineStr">
         <is>
@@ -19922,6 +22386,32 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>22</v>
+      </c>
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="inlineStr">
         <is>
@@ -19972,6 +22462,32 @@
       <c r="H11" t="n">
         <v>7</v>
       </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -19997,6 +22513,34 @@
       </c>
       <c r="H12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -20016,7 +22560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20481,6 +23025,58 @@
       <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="inlineStr">
         <is>
@@ -20581,6 +23177,32 @@
       <c r="H7" t="n">
         <v>3</v>
       </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -20658,6 +23280,34 @@
       </c>
       <c r="H10" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -20677,7 +23327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21020,6 +23670,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -21118,6 +23794,32 @@
       <c r="Q5" t="n">
         <v>5</v>
       </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>35</v>
+      </c>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="inlineStr">
         <is>
@@ -21294,6 +23996,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>35</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -21343,6 +24071,34 @@
       </c>
       <c r="AI10" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -21362,7 +24118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21607,6 +24363,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -22001,6 +24783,32 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -22024,6 +24832,60 @@
       </c>
       <c r="AI8" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -22042,7 +24904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22310,6 +25172,112 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -22326,7 +25294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22567,6 +25535,112 @@
         <v>2</v>
       </c>
       <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22581,7 +25655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22826,6 +25900,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -22876,6 +26002,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>52</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -22925,6 +26077,34 @@
       </c>
       <c r="AI5" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -22942,7 +26122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23529,6 +26709,32 @@
       <c r="Q6" t="n">
         <v>1</v>
       </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -23626,6 +26832,86 @@
       </c>
       <c r="AI7" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -23645,7 +26931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24012,6 +27298,58 @@
       <c r="H4" t="n">
         <v>12</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>27</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -24135,6 +27473,60 @@
       </c>
       <c r="AI6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
